--- a/DOMAIN_HOSTING_BACKLINK-DETAIL.xlsx
+++ b/DOMAIN_HOSTING_BACKLINK-DETAIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Detail Domain" sheetId="3" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -228,6 +228,51 @@
   </si>
   <si>
     <t>https://www.qwords.com</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>gapradefri</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/domain/contohku.net/</t>
+  </si>
+  <si>
+    <t>Stumbleupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account </t>
+  </si>
+  <si>
+    <t>asliye</t>
+  </si>
+  <si>
+    <t>gapradefri@housat.com</t>
+  </si>
+  <si>
+    <t>BIasa</t>
+  </si>
+  <si>
+    <t>http://www.stumbleupon.com/stumbler/asliye</t>
+  </si>
+  <si>
+    <t>https://slashdot.org</t>
+  </si>
+  <si>
+    <t>https://slashdot.org/~gapra</t>
+  </si>
+  <si>
+    <t>gapra</t>
+  </si>
+  <si>
+    <t>Backlinks</t>
+  </si>
+  <si>
+    <t>https://slashdot.org/submission/6650859/contoh-surat-lamaran-kerja-bidan-di-rumah-sakit-swasta</t>
+  </si>
+  <si>
+    <t>newsvine.com</t>
   </si>
 </sst>
 </file>
@@ -577,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,11 +781,13 @@
     <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="79.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,16 +801,22 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -776,17 +829,17 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -796,11 +849,11 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -813,18 +866,154 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="E7" r:id="rId9"/>
+    <hyperlink ref="G7" r:id="rId10"/>
+    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="E8" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -834,15 +1023,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
